--- a/src/data/thermal_physics_quiz_dataset.xlsx
+++ b/src/data/thermal_physics_quiz_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavilien/Desktop/School/JC/Y5/Non-Core/RSI/Project/2 - Physics Questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavilien/Desktop/Coding/Projects/automatic-grading/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F391058-096C-6748-9A73-B7AA26A505A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC76E975-C920-324A-B0A3-8A279779FE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="25600" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -3009,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C295"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A35" zoomScale="88" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6792,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8231,7 +8231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="171" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -9658,61 +9658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A977B38AFA32664CBC076FD75CF4C1F6" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb7c0fb559596c1561a70b5af3645044">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9081bad1-c399-41c1-979d-71f0e3369cf2" xmlns:ns3="b1ed4896-73af-43c1-9012-9ecb2c96011c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d5f8bb82ee2c6d1bab020738af6c5308" ns2:_="" ns3:_="">
     <xsd:import namespace="9081bad1-c399-41c1-979d-71f0e3369cf2"/>
@@ -9890,7 +9835,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9081bad1-c399-41c1-979d-71f0e3369cf2"/>
@@ -9907,23 +9852,62 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55EB1F06-29EA-49C9-A127-D2BC72595F8E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB23891-9C0E-4BC0-92B2-6FF3838AF962}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD18CF1-CD91-4084-9E98-F6D4A0972277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9942,7 +9926,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B418E07C-2870-4E83-93A0-2967943303D3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="9081bad1-c399-41c1-979d-71f0e3369cf2"/>
@@ -9957,4 +9941,20 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{55EB1F06-29EA-49C9-A127-D2BC72595F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB23891-9C0E-4BC0-92B2-6FF3838AF962}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>